--- a/scint_fp/path_LOGS/DOY_in_LOG_IMU_BTT.xlsx
+++ b/scint_fp/path_LOGS/DOY_in_LOG_IMU_BTT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\scintillometer_footprints\scint_fp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\scintillometer_footprints\scint_fp\path_LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252DE5CB-C46E-45FA-9717-54EFF4DB4F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E2C5B-823C-4A5A-8570-34A832BA92D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1350" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,13 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,12 +548,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -918,7 +911,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,28 +972,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="2">
         <v>198</v>
       </c>
-      <c r="C3" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1031,28 +1024,28 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="2">
         <v>196</v>
       </c>
-      <c r="C5" s="3">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1083,184 +1076,184 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="2">
         <v>194</v>
       </c>
-      <c r="C7" s="3">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="2">
         <v>193</v>
       </c>
-      <c r="C8" s="3">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="2">
         <v>192</v>
       </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="2">
         <v>191</v>
       </c>
-      <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="2">
         <v>190</v>
       </c>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="2">
         <v>189</v>
       </c>
-      <c r="C12" s="3">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="2">
         <v>188</v>
       </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1291,600 +1284,600 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="A15" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="2">
         <v>186</v>
       </c>
-      <c r="C15" s="3">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="2">
         <v>185</v>
       </c>
-      <c r="C16" s="3">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="2">
         <v>184</v>
       </c>
-      <c r="C17" s="3">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="2">
         <v>183</v>
       </c>
-      <c r="C18" s="3">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="2">
         <v>182</v>
       </c>
-      <c r="C19" s="3">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="2">
         <v>181</v>
       </c>
-      <c r="C20" s="4">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="A21" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="2">
         <v>180</v>
       </c>
-      <c r="C21" s="3">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="A22" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="2">
         <v>179</v>
       </c>
-      <c r="C22" s="3">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="A23" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="2">
         <v>178</v>
       </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="A24" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B24" s="2">
         <v>177</v>
       </c>
-      <c r="C24" s="3">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="A25" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B25" s="2">
         <v>176</v>
       </c>
-      <c r="C25" s="3">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="A26" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="2">
         <v>150</v>
       </c>
-      <c r="C26" s="3">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="C26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="A27" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B27" s="2">
         <v>149</v>
       </c>
-      <c r="C27" s="3">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="A28" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="2">
         <v>148</v>
       </c>
-      <c r="C28" s="3">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="C28" s="2">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="A29" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="2">
         <v>147</v>
       </c>
-      <c r="C29" s="4">
-        <v>10</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="A30" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B30" s="2">
         <v>146</v>
       </c>
-      <c r="C30" s="3">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B31" s="3">
+      <c r="A31" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="2">
         <v>145</v>
       </c>
-      <c r="C31" s="3">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="A32" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="2">
         <v>144</v>
       </c>
-      <c r="C32" s="3">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="C32" s="2">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="A33" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B33" s="2">
         <v>143</v>
       </c>
-      <c r="C33" s="3">
-        <v>10</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="A34" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B34" s="2">
         <v>139</v>
       </c>
-      <c r="C34" s="3">
-        <v>10</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="A35" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="2">
         <v>138</v>
       </c>
-      <c r="C35" s="3">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="C35" s="2">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="A36" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B36" s="2">
         <v>137</v>
       </c>
-      <c r="C36" s="3">
-        <v>10</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="A37" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="2">
         <v>136</v>
       </c>
-      <c r="C37" s="4">
-        <v>10</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="C37" s="2">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1915,184 +1908,184 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="A39" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B39" s="2">
         <v>134</v>
       </c>
-      <c r="C39" s="3">
-        <v>10</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="A40" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B40" s="2">
         <v>108</v>
       </c>
-      <c r="C40" s="3">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="C40" s="2">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="A41" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B41" s="2">
         <v>107</v>
       </c>
-      <c r="C41" s="3">
-        <v>10</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="A42" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B42" s="2">
         <v>106</v>
       </c>
-      <c r="C42" s="3">
-        <v>10</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B43" s="3">
+      <c r="A43" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B43" s="2">
         <v>105</v>
       </c>
-      <c r="C43" s="3">
-        <v>10</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B44" s="3">
+      <c r="A44" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B44" s="2">
         <v>104</v>
       </c>
-      <c r="C44" s="3">
-        <v>10</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
+      <c r="C44" s="2">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B45" s="3">
+      <c r="A45" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B45" s="2">
         <v>103</v>
       </c>
-      <c r="C45" s="3">
-        <v>10</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scint_fp/path_LOGS/DOY_in_LOG_IMU_BTT.xlsx
+++ b/scint_fp/path_LOGS/DOY_in_LOG_IMU_BTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\scintillometer_footprints\scint_fp\path_LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E2C5B-823C-4A5A-8570-34A832BA92D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5056FB21-5625-4B23-A037-90C9BCCD03D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1350" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,12 +378,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,11 +542,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,7 +904,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,28 +991,28 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="2">
         <v>197</v>
       </c>
-      <c r="C4" s="3">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1050,28 +1043,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="2">
         <v>195</v>
       </c>
-      <c r="C6" s="3">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1258,28 +1251,28 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="2">
         <v>187</v>
       </c>
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1882,28 +1875,28 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B38" s="3">
+      <c r="A38" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B38" s="2">
         <v>135</v>
       </c>
-      <c r="C38" s="3">
-        <v>10</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
